--- a/biology/Botanique/Hêtre_du_Japon/Hêtre_du_Japon.xlsx
+++ b/biology/Botanique/Hêtre_du_Japon/Hêtre_du_Japon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>H%C3%AAtre_du_Japon</t>
+          <t>Hêtre_du_Japon</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fagus crenata
 Le hêtre du Japon (Fagus crenata) est une espèce d'arbre à feuilles caduques, de la famille des Fagaceae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>H%C3%AAtre_du_Japon</t>
+          <t>Hêtre_du_Japon</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fagus crenata est un arbre originaire du Japon. Il pousse dans une zone tempérée s'étendant du sud de l'île de Hokkaidō jusqu'à la péninsule d'Ōsumi dans le sud de l'île de Kyūshū.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>H%C3%AAtre_du_Japon</t>
+          <t>Hêtre_du_Japon</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vernaculaire du hêtre du Japon est buna (ブナ?).
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>H%C3%AAtre_du_Japon</t>
+          <t>Hêtre_du_Japon</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Le hêtre du Japon peut atteindre jusqu’à 35 m de hauteur.
 </t>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>H%C3%AAtre_du_Japon</t>
+          <t>Hêtre_du_Japon</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,9 +623,11 @@
           <t>Monuments naturels</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Au Japon, des forêts de hêtres sont classées monuments naturels nationaux comme celle d'Utasai dans le bourg de Kuromatsunai[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au Japon, des forêts de hêtres sont classées monuments naturels nationaux comme celle d'Utasai dans le bourg de Kuromatsunai.
 </t>
         </is>
       </c>
